--- a/biology/Botanique/Anne_Pratt/Anne_Pratt.xlsx
+++ b/biology/Botanique/Anne_Pratt/Anne_Pratt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Pratt est une illustratrice botanique et ornithologique anglaise, née le 5 décembre 1806 à Strood (Kent, Angleterre) et morte en 1893 à Londres.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Strood dans le Kent, Anne Pratt est la deuxième des trois filles de Robert Pratt, épicier et de Sara Bundock, son épouse, aux origines huguenotes[1]. Elle est l'une des illustrateurs botaniques anglais les plus connus de l'époque victorienne. En raison d'une mauvaise santé et d'un «genou raide» dans l'enfance, elle est encouragée à délaisser les activités de plein air pour se concentrer par le dessin. Sa sœur ainée se charge de lui rapporter de l'extérieur tous types de végétaux qu'elles collectionnent dans l'herbarium familial. Anne Pratt reçoit son éducation au sein de la Eastgate House de Rochester. Le Docteur Dods, un ami de la famille, l'initie à la botanique[2].
-En 1826, elle déménage à Brixton dans la banlieue de Londres, où elle développe véritablement sa carrière en tant qu'illustratrice. Elle s'installe à Douvres en 1849, puis à East Grinstead en 1866, où elle épouse John Pearless. Le couple déménage alors à Redhill. Anne Pratt décède à Shepherd's Bush, quartier de Londres, en 1893[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Strood dans le Kent, Anne Pratt est la deuxième des trois filles de Robert Pratt, épicier et de Sara Bundock, son épouse, aux origines huguenotes. Elle est l'une des illustrateurs botaniques anglais les plus connus de l'époque victorienne. En raison d'une mauvaise santé et d'un «genou raide» dans l'enfance, elle est encouragée à délaisser les activités de plein air pour se concentrer par le dessin. Sa sœur ainée se charge de lui rapporter de l'extérieur tous types de végétaux qu'elles collectionnent dans l'herbarium familial. Anne Pratt reçoit son éducation au sein de la Eastgate House de Rochester. Le Docteur Dods, un ami de la famille, l'initie à la botanique.
+En 1826, elle déménage à Brixton dans la banlieue de Londres, où elle développe véritablement sa carrière en tant qu'illustratrice. Elle s'installe à Douvres en 1849, puis à East Grinstead en 1866, où elle épouse John Pearless. Le couple déménage alors à Redhill. Anne Pratt décède à Shepherd's Bush, quartier de Londres, en 1893. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Carrière professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Pratt a écrit et illustré plus d'une vingtaine d'ouvrages dans sa carrière. Elle utilise principalement le processus de chromolithographie, en collaborant avec le graveur et spécialiste de cette technique, William Dickes. Ses textes rédigés dans un style populaire ont contribué à la vulgarisation scientifique de la botanique et à son accès auprès d'un large public[2]. Bien que ses ouvrages se vendent correctement et que ses illustrations soient reconnues exactes, elle est vivement critiquée en raison de son manque de formation scientifique formelle[4]. 
-Son ouvrage le plus reconnu reste The Flowering Plants, Grasses, Sedges, and Ferns of Great Britain and Their Allies the Club Mosses, Pepperworts, and Horsetails (1855-1873), un projet en six volumes couvrant plus de 1 500 espèces et comprenant 300 illustrations. Plus d'une décennie a été nécessaire à Anne Pratt pour publier l'intégralité de ses recherches[3],[5]. L'ouvrage devient la référence pour les botanistes britanniques de la première moitié du XXe siècle. En 1950, ses illustrations des fougères sont utilisées dans un autre ouvrage de référence, The Observer's Book of Ferns. Les dessins de taille plus importante et en demi-tons ne lui sont cependant pas attribués[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Pratt a écrit et illustré plus d'une vingtaine d'ouvrages dans sa carrière. Elle utilise principalement le processus de chromolithographie, en collaborant avec le graveur et spécialiste de cette technique, William Dickes. Ses textes rédigés dans un style populaire ont contribué à la vulgarisation scientifique de la botanique et à son accès auprès d'un large public. Bien que ses ouvrages se vendent correctement et que ses illustrations soient reconnues exactes, elle est vivement critiquée en raison de son manque de formation scientifique formelle. 
+Son ouvrage le plus reconnu reste The Flowering Plants, Grasses, Sedges, and Ferns of Great Britain and Their Allies the Club Mosses, Pepperworts, and Horsetails (1855-1873), un projet en six volumes couvrant plus de 1 500 espèces et comprenant 300 illustrations. Plus d'une décennie a été nécessaire à Anne Pratt pour publier l'intégralité de ses recherches,. L'ouvrage devient la référence pour les botanistes britanniques de la première moitié du XXe siècle. En 1950, ses illustrations des fougères sont utilisées dans un autre ouvrage de référence, The Observer's Book of Ferns. Les dessins de taille plus importante et en demi-tons ne lui sont cependant pas attribués. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Quatre tiges de plantes avec leurs chatons, toutes provenant de types de saules (espèces de Salix). Chromolithographie par W. Dickes et co., Anne Pratt, 1855.
@@ -611,7 +629,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>The Field, the Garden, and the Woodland, 1838
 Flowers and their associations, 1840
